--- a/ExcelFiles/GameConst.xlsx
+++ b/ExcelFiles/GameConst.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="66">
   <si>
     <t>int</t>
   </si>
@@ -124,13 +124,13 @@
     <t>midAniSpeedValue</t>
   </si>
   <si>
-    <t>动画速度为1时对照的速度值</t>
+    <t>动画速度为1时对照的迅捷值</t>
   </si>
   <si>
     <t>maxAniSpeedValue</t>
   </si>
   <si>
-    <t>动画速度为最大时对照的速度值</t>
+    <t>动画速度为最大时对照的迅捷值</t>
   </si>
   <si>
     <t>oneBallSkillValue</t>
@@ -197,6 +197,36 @@
   </si>
   <si>
     <t>连击计时</t>
+  </si>
+  <si>
+    <t>dodgeEnergySum</t>
+  </si>
+  <si>
+    <t>闪避能量总和</t>
+  </si>
+  <si>
+    <t>dodgeConsumeEnergy</t>
+  </si>
+  <si>
+    <t>一次闪避消耗的能量</t>
+  </si>
+  <si>
+    <t>dodgeEnergyRegainPS</t>
+  </si>
+  <si>
+    <t>闪避能量每秒恢复</t>
+  </si>
+  <si>
+    <t>unlimitedSpaceCDTime</t>
+  </si>
+  <si>
+    <t>超算空间冷却时间</t>
+  </si>
+  <si>
+    <t>unlimitedSpaceStayTime</t>
+  </si>
+  <si>
+    <t>超算空间持续时间</t>
   </si>
 </sst>
 </file>
@@ -1127,10 +1157,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -1361,7 +1391,7 @@
         <v>33</v>
       </c>
       <c r="D16">
-        <v>200</v>
+        <v>300</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1417,7 +1447,7 @@
         <v>41</v>
       </c>
       <c r="D20">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1516,6 +1546,76 @@
       </c>
       <c r="D27">
         <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" t="s">
+        <v>57</v>
+      </c>
+      <c r="D28">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" t="s">
+        <v>59</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" t="s">
+        <v>61</v>
+      </c>
+      <c r="D30">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" t="s">
+        <v>63</v>
+      </c>
+      <c r="D31">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" t="s">
+        <v>65</v>
+      </c>
+      <c r="D32">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelFiles/GameConst.xlsx
+++ b/ExcelFiles/GameConst.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="74">
   <si>
     <t>int</t>
   </si>
@@ -85,16 +85,16 @@
     <t>总共可获得技能球数</t>
   </si>
   <si>
-    <t>getOneSkillBallTime</t>
-  </si>
-  <si>
-    <t>自动获得1个技能球间隔时间（秒）</t>
-  </si>
-  <si>
-    <t>getOneSkillBallAttackCount</t>
-  </si>
-  <si>
-    <t>获得1个技能球需要的有效攻击次数</t>
+    <t>getOneSkillBallEnergySum</t>
+  </si>
+  <si>
+    <t>自动获得1个技能球能量总和</t>
+  </si>
+  <si>
+    <t>getSkillBallEnergyNAttackHit</t>
+  </si>
+  <si>
+    <t>普通攻击有效攻击一次获得回球能量</t>
   </si>
   <si>
     <t>alpha_coreStayTime</t>
@@ -227,6 +227,30 @@
   </si>
   <si>
     <t>超算空间持续时间</t>
+  </si>
+  <si>
+    <t>affactedLieRigidityTime</t>
+  </si>
+  <si>
+    <t>被击躺倒时间</t>
+  </si>
+  <si>
+    <t>affactedFlyForceY</t>
+  </si>
+  <si>
+    <t>被击浮空时受到向上的力</t>
+  </si>
+  <si>
+    <t>monsterCommonSkillBelongId</t>
+  </si>
+  <si>
+    <t>怪物通用的技能归属Id</t>
+  </si>
+  <si>
+    <t>getSkillBallEnergyPS</t>
+  </si>
+  <si>
+    <t>每秒获得的回球能量</t>
   </si>
 </sst>
 </file>
@@ -1157,15 +1181,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
-    <col min="2" max="2" width="22.3333333333333" customWidth="1"/>
+    <col min="2" max="2" width="28.2222222222222" customWidth="1"/>
     <col min="3" max="3" width="37.7777777777778" customWidth="1"/>
     <col min="4" max="4" width="16.2222222222222" customWidth="1"/>
   </cols>
@@ -1223,7 +1247,7 @@
         <v>9</v>
       </c>
       <c r="D4">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1293,7 +1317,7 @@
         <v>19</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1307,7 +1331,7 @@
         <v>21</v>
       </c>
       <c r="D10">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1559,7 +1583,7 @@
         <v>57</v>
       </c>
       <c r="D28">
-        <v>400</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1573,7 +1597,7 @@
         <v>59</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1587,7 +1611,7 @@
         <v>61</v>
       </c>
       <c r="D30">
-        <v>40</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1601,7 +1625,7 @@
         <v>63</v>
       </c>
       <c r="D31">
-        <v>6</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1615,7 +1639,63 @@
         <v>65</v>
       </c>
       <c r="D32">
-        <v>6</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33" t="s">
+        <v>67</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>68</v>
+      </c>
+      <c r="C34" t="s">
+        <v>69</v>
+      </c>
+      <c r="D34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>70</v>
+      </c>
+      <c r="C35" t="s">
+        <v>71</v>
+      </c>
+      <c r="D35">
+        <v>-101</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>72</v>
+      </c>
+      <c r="C36" t="s">
+        <v>73</v>
+      </c>
+      <c r="D36">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
